--- a/pomiary_wozniak.xlsx
+++ b/pomiary_wozniak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Fizyka 2\Lab3\Fizyka_Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAUKA\R\Fizyka 2\fizyka_lab3\fizyka_lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C44272-78E0-4266-9F78-6D3BFC60DEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B78E6-6974-46C8-A506-5D3BB9D12D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{289A4FD7-2BE2-41A6-8BDB-15374CBC1043}"/>
+    <workbookView xWindow="3975" yWindow="2055" windowWidth="15690" windowHeight="11400" activeTab="1" xr2:uid="{289A4FD7-2BE2-41A6-8BDB-15374CBC1043}"/>
   </bookViews>
   <sheets>
     <sheet name="zad2" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052CCC8E-EA93-439E-AE22-A2A00DB8D80E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B63B1-2227-4321-943E-92012C13D407}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1255,14 @@
         <v>334.00207559368738</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="F22">
+        <v>22.5259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
